--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1408123333333333</v>
+        <v>1.220413333333333</v>
       </c>
       <c r="N2">
-        <v>0.422437</v>
+        <v>3.66124</v>
       </c>
       <c r="O2">
-        <v>0.04375200667822514</v>
+        <v>0.9446596300458959</v>
       </c>
       <c r="P2">
-        <v>0.04375200667822513</v>
+        <v>0.9446596300458959</v>
       </c>
       <c r="Q2">
-        <v>25.91829695238489</v>
+        <v>77.99805906869777</v>
       </c>
       <c r="R2">
-        <v>233.264672571464</v>
+        <v>701.9825316182799</v>
       </c>
       <c r="S2">
-        <v>0.02848476911184036</v>
+        <v>0.38428063302639</v>
       </c>
       <c r="T2">
-        <v>0.02848476911184036</v>
+        <v>0.38428063302639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,33 +614,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.220413333333333</v>
+        <v>0.07149466666666666</v>
       </c>
       <c r="N3">
-        <v>3.66124</v>
+        <v>0.214484</v>
       </c>
       <c r="O3">
-        <v>0.3791964172896432</v>
+        <v>0.05534036995410405</v>
       </c>
       <c r="P3">
-        <v>0.3791964172896432</v>
+        <v>0.05534036995410405</v>
       </c>
       <c r="Q3">
-        <v>224.6325618588089</v>
+        <v>4.569308677194222</v>
       </c>
       <c r="R3">
-        <v>2021.69305672928</v>
+        <v>41.123778094748</v>
       </c>
       <c r="S3">
-        <v>0.2468760455713737</v>
+        <v>0.02251205801696481</v>
       </c>
       <c r="T3">
-        <v>0.2468760455713738</v>
+        <v>0.02251205801696481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>57.4434</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>172.3302</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.857194333333333</v>
+        <v>1.220413333333333</v>
       </c>
       <c r="N4">
-        <v>5.571583</v>
+        <v>3.66124</v>
       </c>
       <c r="O4">
-        <v>0.5770515760321316</v>
+        <v>0.9446596300458959</v>
       </c>
       <c r="P4">
-        <v>0.5770515760321316</v>
+        <v>0.9446596300458959</v>
       </c>
       <c r="Q4">
-        <v>341.8401860842195</v>
+        <v>70.104691272</v>
       </c>
       <c r="R4">
-        <v>3076.561674757976</v>
+        <v>630.9422214480001</v>
       </c>
       <c r="S4">
-        <v>0.3756897604671344</v>
+        <v>0.3453916092501246</v>
       </c>
       <c r="T4">
-        <v>0.3756897604671344</v>
+        <v>0.3453916092501246</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1408123333333333</v>
+        <v>0.07149466666666666</v>
       </c>
       <c r="N5">
-        <v>0.422437</v>
+        <v>0.214484</v>
       </c>
       <c r="O5">
-        <v>0.04375200667822514</v>
+        <v>0.05534036995410405</v>
       </c>
       <c r="P5">
-        <v>0.04375200667822513</v>
+        <v>0.05534036995410405</v>
       </c>
       <c r="Q5">
-        <v>8.088739188600002</v>
+        <v>4.106896735199999</v>
       </c>
       <c r="R5">
-        <v>72.79865269740002</v>
+        <v>36.9620706168</v>
       </c>
       <c r="S5">
-        <v>0.008889699374015585</v>
+        <v>0.02023384807289435</v>
       </c>
       <c r="T5">
-        <v>0.008889699374015585</v>
+        <v>0.02023384807289435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.4434</v>
+        <v>35.755375</v>
       </c>
       <c r="H6">
-        <v>172.3302</v>
+        <v>107.266125</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>3.66124</v>
       </c>
       <c r="O6">
-        <v>0.3791964172896432</v>
+        <v>0.9446596300458959</v>
       </c>
       <c r="P6">
-        <v>0.3791964172896432</v>
+        <v>0.9446596300458959</v>
       </c>
       <c r="Q6">
-        <v>70.10469127200001</v>
+        <v>43.63633638833333</v>
       </c>
       <c r="R6">
-        <v>630.9422214480002</v>
+        <v>392.727027495</v>
       </c>
       <c r="S6">
-        <v>0.07704657247381461</v>
+        <v>0.2149873877693812</v>
       </c>
       <c r="T6">
-        <v>0.07704657247381461</v>
+        <v>0.2149873877693813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.4434</v>
+        <v>35.755375</v>
       </c>
       <c r="H7">
-        <v>172.3302</v>
+        <v>107.266125</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,214 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.857194333333333</v>
+        <v>0.07149466666666666</v>
       </c>
       <c r="N7">
-        <v>5.571583</v>
+        <v>0.214484</v>
       </c>
       <c r="O7">
-        <v>0.5770515760321316</v>
+        <v>0.05534036995410405</v>
       </c>
       <c r="P7">
-        <v>0.5770515760321316</v>
+        <v>0.05534036995410405</v>
       </c>
       <c r="Q7">
-        <v>106.6835569674</v>
+        <v>2.556318617166667</v>
       </c>
       <c r="R7">
-        <v>960.1520127066</v>
+        <v>23.0068675545</v>
       </c>
       <c r="S7">
-        <v>0.1172475372833721</v>
+        <v>0.01259446386424489</v>
       </c>
       <c r="T7">
-        <v>0.1172475372833721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H8">
-        <v>123.631001</v>
-      </c>
-      <c r="I8">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J8">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1408123333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.422437</v>
-      </c>
-      <c r="O8">
-        <v>0.04375200667822514</v>
-      </c>
-      <c r="P8">
-        <v>0.04375200667822513</v>
-      </c>
-      <c r="Q8">
-        <v>5.802923241048557</v>
-      </c>
-      <c r="R8">
-        <v>52.22630916943701</v>
-      </c>
-      <c r="S8">
-        <v>0.006377538192369185</v>
-      </c>
-      <c r="T8">
-        <v>0.006377538192369185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H9">
-        <v>123.631001</v>
-      </c>
-      <c r="I9">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J9">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>1.220413333333333</v>
-      </c>
-      <c r="N9">
-        <v>3.66124</v>
-      </c>
-      <c r="O9">
-        <v>0.3791964172896432</v>
-      </c>
-      <c r="P9">
-        <v>0.3791964172896432</v>
-      </c>
-      <c r="Q9">
-        <v>50.29364067791556</v>
-      </c>
-      <c r="R9">
-        <v>452.6427661012401</v>
-      </c>
-      <c r="S9">
-        <v>0.0552737992444548</v>
-      </c>
-      <c r="T9">
-        <v>0.05527379924445482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H10">
-        <v>123.631001</v>
-      </c>
-      <c r="I10">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J10">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>1.857194333333333</v>
-      </c>
-      <c r="N10">
-        <v>5.571583</v>
-      </c>
-      <c r="O10">
-        <v>0.5770515760321316</v>
-      </c>
-      <c r="P10">
-        <v>0.5770515760321316</v>
-      </c>
-      <c r="Q10">
-        <v>76.53559816050922</v>
-      </c>
-      <c r="R10">
-        <v>688.8203834445831</v>
-      </c>
-      <c r="S10">
-        <v>0.08411427828162513</v>
-      </c>
-      <c r="T10">
-        <v>0.08411427828162514</v>
+        <v>0.01259446386424489</v>
       </c>
     </row>
   </sheetData>
